--- a/Data/Herbicide_Phylogenetic.xlsx
+++ b/Data/Herbicide_Phylogenetic.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="signals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="74">
   <si>
     <t>Date of collection</t>
   </si>
@@ -228,6 +229,24 @@
   </si>
   <si>
     <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
   </si>
 </sst>
 </file>
@@ -554,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
@@ -15231,4 +15250,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.95043200000000005</v>
+      </c>
+      <c r="C2">
+        <v>0.936222</v>
+      </c>
+      <c r="D2">
+        <v>0.68552800000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.45973000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.54830500000000004</v>
+      </c>
+      <c r="G2">
+        <v>1.0884799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.58141399999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.95101199999999997</v>
+      </c>
+      <c r="D3">
+        <v>1.1795599999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.44481900000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.82552300000000001</v>
+      </c>
+      <c r="G3">
+        <v>1.2023299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.2299899999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.4346699999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.52015400000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.52124800000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.52162600000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.61559799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.56672199999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.52097700000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.55205599999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.51924199999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.52223299999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.54800499999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.64051100000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.56259000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.56005000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.56432199999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.55403599999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.529999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Herbicide_Phylogenetic.xlsx
+++ b/Data/Herbicide_Phylogenetic.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="signals" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$181</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z181"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +672,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -3585,7 +3588,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -4557,7 +4560,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
@@ -5529,7 +5532,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
@@ -6501,7 +6504,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -7473,7 +7476,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
         <v>32</v>
@@ -8445,7 +8448,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
         <v>32</v>
@@ -9417,7 +9420,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
         <v>32</v>
@@ -10389,7 +10392,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B122" t="s">
         <v>32</v>
@@ -11361,7 +11364,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s">
         <v>32</v>
@@ -12333,7 +12336,7 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
         <v>32</v>
@@ -13305,7 +13308,7 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B158" t="s">
         <v>32</v>
@@ -14277,7 +14280,7 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B170" t="s">
         <v>32</v>
@@ -15257,7 +15260,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15290,22 +15293,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.95043200000000005</v>
+        <v>1.10599</v>
       </c>
       <c r="C2">
-        <v>0.936222</v>
+        <v>1.11799</v>
       </c>
       <c r="D2">
-        <v>0.68552800000000003</v>
+        <v>1.0662</v>
       </c>
       <c r="E2">
-        <v>0.45973000000000003</v>
+        <v>0.90981699999999999</v>
       </c>
       <c r="F2">
-        <v>0.54830500000000004</v>
+        <v>0.989375</v>
       </c>
       <c r="G2">
-        <v>1.0884799999999999</v>
+        <v>1.1572</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -15313,22 +15316,22 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.58141399999999999</v>
+        <v>1.02651</v>
       </c>
       <c r="C3">
-        <v>0.95101199999999997</v>
+        <v>1.2181500000000001</v>
       </c>
       <c r="D3">
-        <v>1.1795599999999999</v>
+        <v>0.86242300000000005</v>
       </c>
       <c r="E3">
-        <v>0.44481900000000002</v>
+        <v>0.91653700000000005</v>
       </c>
       <c r="F3">
-        <v>0.82552300000000001</v>
+        <v>1.1328</v>
       </c>
       <c r="G3">
-        <v>1.2023299999999999</v>
+        <v>1.2115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -15336,22 +15339,22 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.2299899999999999</v>
+        <v>1.23298</v>
       </c>
       <c r="C4">
-        <v>1.4346699999999999</v>
+        <v>1.43594</v>
       </c>
       <c r="D4">
-        <v>0.52015400000000001</v>
+        <v>0.46010099999999998</v>
       </c>
       <c r="E4">
-        <v>0.52124800000000004</v>
+        <v>0.46248400000000001</v>
       </c>
       <c r="F4">
-        <v>0.52162600000000003</v>
+        <v>0.46283299999999999</v>
       </c>
       <c r="G4">
-        <v>0.61559799999999998</v>
+        <v>0.567465</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -15359,22 +15362,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.56672199999999995</v>
+        <v>0.49863099999999999</v>
       </c>
       <c r="C5">
-        <v>0.52097700000000002</v>
+        <v>0.45963700000000002</v>
       </c>
       <c r="D5">
-        <v>0.55205599999999999</v>
+        <v>0.48808699999999999</v>
       </c>
       <c r="E5">
-        <v>0.51924199999999998</v>
+        <v>0.45903699999999997</v>
       </c>
       <c r="F5">
-        <v>0.52223299999999995</v>
+        <v>0.45927400000000002</v>
       </c>
       <c r="G5">
-        <v>0.54800499999999996</v>
+        <v>0.46482000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -15382,22 +15385,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.64051100000000005</v>
+        <v>0.56964800000000004</v>
       </c>
       <c r="C6">
-        <v>0.56259000000000003</v>
+        <v>0.486265</v>
       </c>
       <c r="D6">
-        <v>0.56005000000000005</v>
+        <v>0.47549599999999997</v>
       </c>
       <c r="E6">
-        <v>0.56432199999999999</v>
+        <v>0.48687200000000003</v>
       </c>
       <c r="F6">
-        <v>0.55403599999999997</v>
+        <v>0.48807499999999998</v>
       </c>
       <c r="G6">
-        <v>0.529999</v>
+        <v>0.43710100000000002</v>
       </c>
     </row>
   </sheetData>
